--- a/biology/Botanique/Saihō-ji/Saihō-ji.xlsx
+++ b/biology/Botanique/Saihō-ji/Saihō-ji.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Saih%C5%8D-ji</t>
+          <t>Saihō-ji</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Saihō-ji (西芳寺?, « le temple des fragrances de l'ouest ») est un temple bouddhiste zen situé dans la banlieue ouest de Kyoto. Le temple est surtout connu sous le nom de Kokedera (苔寺?, « temple des mousses »), à cause des 120 espèces de mousses qu'il abrite. Le temple, appartenant au courant Rinzai du bouddhisme, est dédié au bouddha Amitabha. Le temple est inscrit sur la liste du patrimoine mondial de l'Unesco en tant qu'héritage culturel faisant partie des temples de Kyoto.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Saih%C5%8D-ji</t>
+          <t>Saihō-ji</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine et histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon la tradition du temple, le site fut tout d'abord la résidence de vacances du prince Shōtoku.
 Un prêtre de l'époque de Nara, Gyoki Bosatsu, qui fonda 49 temples dans les provinces centrales, le transforma ensuite en un temple consacré au bouddha Amitabha. Le temple s'appelait déjà à l'origine Saihō-ji mais les caractères utilisés étaient différents des caractères actuels (en japonais, 西方寺, « temple de la direction de l'ouest »).
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Saih%C5%8D-ji</t>
+          <t>Saihō-ji</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Temple</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le temple est célèbre par son jardin unique où sont cultivées 120 espèces de mousses différentes. Le jardin est organisé autour d'un étang dont la forme rappelle le caractère chinois 心 signifiant « cœur ».
 Autour de l'étang, trois maisons de thé permettaient de profiter de certaines perspectives du jardin en pratiquant la cérémonie du thé.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Saih%C5%8D-ji</t>
+          <t>Saihō-ji</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Accès et visites</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Afin de visiter le Saihō-ji, il est nécessaire de déposer une demande adressée au temple, dont les formulaires sont disponibles au centre d'information touristique local. La ponctualité est de rigueur lors de l'arrivée au temple.
 Il faut prévoir une donation au temple d'un minimum de trois mille yens par visiteur à mettre dans une enveloppe.
